--- a/기획/테이블/캐릭터/NPC/상인 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/상인 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20187D96-BA75-43CF-81D6-3B5CA012CD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49023474-3549-4408-A38A-2A60A7366B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2190" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="2565" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NPCID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleItemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,17 +357,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>15001</v>
       </c>
     </row>
   </sheetData>
